--- a/users.xlsx
+++ b/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuhyun/Documents/Users/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90C7307-97D9-BC4A-B9BB-A406237C8EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C3112F-4981-A741-A976-8A9651691CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="1" activeTab="6" xr2:uid="{A7180B81-5BCA-C841-909A-097C3B0F75B3}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="10" activeTab="17" xr2:uid="{A7180B81-5BCA-C841-909A-097C3B0F75B3}"/>
   </bookViews>
   <sheets>
     <sheet name="carret" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,12 @@
     <sheet name="panvira" sheetId="11" r:id="rId10"/>
     <sheet name="panvira_invited" sheetId="12" r:id="rId11"/>
     <sheet name="masterton" sheetId="13" r:id="rId12"/>
-    <sheet name="masterton_invited" sheetId="14" r:id="rId13"/>
-    <sheet name="dendur" sheetId="15" r:id="rId14"/>
-    <sheet name="veda" sheetId="16" r:id="rId15"/>
-    <sheet name="rocksprings" sheetId="17" r:id="rId16"/>
-    <sheet name="rocksprings_invited" sheetId="18" r:id="rId17"/>
-    <sheet name="icici" sheetId="19" r:id="rId18"/>
-    <sheet name="turiya" sheetId="20" r:id="rId19"/>
+    <sheet name="dendur" sheetId="15" r:id="rId13"/>
+    <sheet name="veda" sheetId="16" r:id="rId14"/>
+    <sheet name="rocksprings" sheetId="17" r:id="rId15"/>
+    <sheet name="rocksprings_invited" sheetId="18" r:id="rId16"/>
+    <sheet name="icici" sheetId="19" r:id="rId17"/>
+    <sheet name="turiya" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="238">
   <si>
     <t>rachel.yin@carretprivate.com</t>
   </si>
@@ -297,16 +296,7 @@
     <t>kit.chia@cgsi.com</t>
   </si>
   <si>
-    <t>jason.saw@cgsi.com</t>
-  </si>
-  <si>
-    <t>luna.liang@cgsi.com</t>
-  </si>
-  <si>
     <t>meeihern.teo@cgsi.com</t>
-  </si>
-  <si>
-    <t>thanapol.ji@cgsi.com</t>
   </si>
   <si>
     <t>yh.lee@cgsi.com</t>
@@ -789,24 +779,36 @@
   <si>
     <t>Sales</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earnings</t>
+  </si>
+  <si>
+    <t>briefing</t>
+  </si>
+  <si>
+    <t>onboarded</t>
+  </si>
+  <si>
+    <t>Max Teplitz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -850,13 +852,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -917,7 +919,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -933,7 +935,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1252,15 +1254,15 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1270,8 +1272,14 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21">
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1294,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="21">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1309,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="21">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1311,12 +1319,14 @@
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="21">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1331,7 +1341,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="21">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1356,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="21">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1371,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="21">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1371,12 +1381,17 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="21">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1391,7 +1406,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="21">
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1406,7 +1421,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="21">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1421,7 +1436,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="21">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1436,7 +1451,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="21">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1466,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="21">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1466,7 +1481,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="21">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1481,7 +1496,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="21">
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1504,15 +1519,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BD8450-3D6A-2844-B51B-4BB55AADF2F6}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1525,19 +1540,25 @@
       <c r="D1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="21">
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1554,9 +1575,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1567,24 +1588,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21">
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="21">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>76</v>
@@ -1597,7 +1618,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="21">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
@@ -1616,12 +1637,12 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1631,20 +1652,34 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21">
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1658,43 +1693,124 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5BBEF-A73B-1B49-862B-81C2A4947594}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBA6274-01EA-0C49-A703-BA018AADD052}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21">
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="21">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1703,16 +1819,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBA6274-01EA-0C49-A703-BA018AADD052}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E78BC31-CAEE-9A4F-BEAA-DD568D0DBCE6}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1722,96 +1838,25 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21">
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="21">
-      <c r="A4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="21">
-      <c r="A5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="21">
-      <c r="A6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="21">
-      <c r="A7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" t="s">
-        <v>189</v>
+      <c r="D2" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1821,16 +1866,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E78BC31-CAEE-9A4F-BEAA-DD568D0DBCE6}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171458C0-70BA-BB43-97B3-819816159727}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1840,8 +1885,14 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="21">
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
@@ -1849,8 +1900,109 @@
         <v>191</v>
       </c>
       <c r="C2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1859,137 +2011,41 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171458C0-70BA-BB43-97B3-819816159727}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F8C68A-B9BA-9743-BE06-2841AAAA9C55}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="21">
-      <c r="A5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="21">
-      <c r="A6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="21">
-      <c r="A7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
         <v>204</v>
       </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="21">
-      <c r="A8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="21">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="C2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1998,41 +2054,79 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F8C68A-B9BA-9743-BE06-2841AAAA9C55}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5849B3EF-4806-7646-80B0-1F8B3F584CC7}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21">
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="21">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2041,16 +2135,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5849B3EF-4806-7646-80B0-1F8B3F584CC7}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48AC8DF-0E59-4145-A9F8-3BE1825DBE08}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2060,161 +2154,100 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="21">
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="21">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="21">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48AC8DF-0E59-4145-A9F8-3BE1825DBE08}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="21">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
         <v>224</v>
       </c>
-      <c r="C5" t="s">
-        <v>227</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="21">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2235,9 +2268,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2248,7 +2281,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -2259,7 +2292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2276,7 +2309,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="21">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
@@ -2288,15 +2321,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA517709-6AD5-EB47-A072-569CF8321F17}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2306,8 +2339,14 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="21">
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -2318,7 +2357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -2328,8 +2367,14 @@
       <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="21">
+      <c r="D3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2340,7 +2385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2350,8 +2395,11 @@
       <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
+      <c r="D5" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2362,7 +2410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -2372,8 +2420,11 @@
       <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+      <c r="D7" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,7 +2435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,7 +2446,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -2406,7 +2457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -2416,8 +2467,14 @@
       <c r="C11" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+      <c r="D11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2428,7 +2485,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -2439,7 +2496,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -2450,7 +2507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2460,8 +2517,11 @@
       <c r="C15" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
+      <c r="D15" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -2472,7 +2532,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2483,7 +2543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -2494,7 +2554,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -2504,8 +2564,14 @@
       <c r="C19" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="21">
+      <c r="D19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -2524,15 +2590,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16D7783-4037-F648-9880-98E87D4D1115}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2543,7 +2609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21">
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -2559,7 +2625,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="21">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -2575,7 +2641,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="21">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -2588,54 +2654,6 @@
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2645,15 +2663,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2577BC-8E86-8442-B0D0-E8149C958E66}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -2663,236 +2681,278 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C22" t="s">
         <v>122</v>
       </c>
-      <c r="C21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" t="s">
-        <v>125</v>
+      <c r="E22" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2903,15 +2963,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B76C5C3-FCF7-7643-BB3D-9A0D6591C2D8}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2922,175 +2982,196 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
-      <c r="A4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21">
-      <c r="A13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3103,13 +3184,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBF9DA1-0027-4646-984D-477CA814F6AA}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -3120,35 +3201,35 @@
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3157,18 +3238,18 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="21">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3177,18 +3258,18 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="21">
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3197,18 +3278,18 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="21">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3217,18 +3298,18 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21">
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3237,18 +3318,18 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="21">
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3257,18 +3338,18 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="21">
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3277,18 +3358,18 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="21">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3297,7 +3378,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="21">
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
@@ -3317,12 +3398,12 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -3332,20 +3413,25 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="21">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3362,9 +3448,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -3375,12 +3461,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>76</v>
@@ -3390,12 +3476,12 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="21">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>76</v>
@@ -3405,12 +3491,12 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="21">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -3420,12 +3506,12 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="21">
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>76</v>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuhyun/Documents/Users/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C3112F-4981-A741-A976-8A9651691CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD94D7C-E0DC-8740-BEB1-251988090CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="10" activeTab="17" xr2:uid="{A7180B81-5BCA-C841-909A-097C3B0F75B3}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="13" activeTab="19" xr2:uid="{A7180B81-5BCA-C841-909A-097C3B0F75B3}"/>
   </bookViews>
   <sheets>
     <sheet name="carret" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,11 @@
     <sheet name="rocksprings_invited" sheetId="18" r:id="rId16"/>
     <sheet name="icici" sheetId="19" r:id="rId17"/>
     <sheet name="turiya" sheetId="20" r:id="rId18"/>
+    <sheet name="j&amp;m_copper" sheetId="21" r:id="rId19"/>
+    <sheet name="thorntree" sheetId="23" r:id="rId20"/>
+    <sheet name="thorntree_invited" sheetId="24" r:id="rId21"/>
+    <sheet name="redwood" sheetId="25" r:id="rId22"/>
+    <sheet name="redwood_invited" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="260">
   <si>
     <t>rachel.yin@carretprivate.com</t>
   </si>
@@ -791,13 +796,79 @@
   </si>
   <si>
     <t>Max Teplitz</t>
+  </si>
+  <si>
+    <t>J&amp;M Copper Beech Ventures</t>
+  </si>
+  <si>
+    <t>chelseahu@jmcopperbeech.com</t>
+  </si>
+  <si>
+    <t>Chelsea Hu</t>
+  </si>
+  <si>
+    <t>yejayying@jmcopperbeech.com</t>
+  </si>
+  <si>
+    <t>EJ Ying</t>
+  </si>
+  <si>
+    <t>mmoore@thorntreecap.com</t>
+  </si>
+  <si>
+    <t>Mark Moore</t>
+  </si>
+  <si>
+    <t>ThornTree Capital Partners</t>
+  </si>
+  <si>
+    <t>kjohnson@thorntreecap.com</t>
+  </si>
+  <si>
+    <t>Kevin Johnson</t>
+  </si>
+  <si>
+    <t>nkordonowy@thorntreecap.com</t>
+  </si>
+  <si>
+    <t>Nicholas Kordonowy</t>
+  </si>
+  <si>
+    <t>pgiampietro@thorntreecap.com</t>
+  </si>
+  <si>
+    <t>Philip Giampietro</t>
+  </si>
+  <si>
+    <t>nsertl@thorntreecap.com</t>
+  </si>
+  <si>
+    <t>Nick Sertl</t>
+  </si>
+  <si>
+    <t>cbaker@thorntreecap.com</t>
+  </si>
+  <si>
+    <t>dlee@redwoodpeak.com</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>Redwood Peak</t>
+  </si>
+  <si>
+    <t>kchiang@redwoodpeak.com</t>
+  </si>
+  <si>
+    <t>invited_not_joined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -863,6 +934,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -886,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +992,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2015,7 +2095,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2138,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48AC8DF-0E59-4145-A9F8-3BE1825DBE08}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,6 +2336,60 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D26009C-03B2-E14D-A4A0-339B3D7C115B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2319,15 +2453,261 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6CFB16-970C-D143-82D6-F5D6EAFEA165}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791C02BE-9BD6-2947-8DF3-C85B1EFF21D6}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AD43AC-2D64-9042-9D64-4C344B77958F}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0C1005-93B6-B545-96A6-84A08D6CABE3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA517709-6AD5-EB47-A072-569CF8321F17}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2666,7 +3046,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
